--- a/Philippe - Badge Cyber 2022 Agile2.xlsx
+++ b/Philippe - Badge Cyber 2022 Agile2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86CBBC8F-0AE2-4838-8C7E-284027760D5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4848ABE-D164-416E-BCF9-E5E991FC0902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="16110" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -23,12 +23,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -194,6 +204,12 @@
   </si>
   <si>
     <t>Développement FRONT</t>
+  </si>
+  <si>
+    <t>Prof</t>
+  </si>
+  <si>
+    <t>Faire fonctionner Back</t>
   </si>
 </sst>
 </file>
@@ -972,7 +988,7 @@
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1091,21 +1107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1121,6 +1122,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1176,15 +1204,6 @@
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1374,6 +1393,15 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1627,8 +1655,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:G29" totalsRowShown="0">
-  <autoFilter ref="B6:G29" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:G31" totalsRowShown="0">
+  <autoFilter ref="B6:G31" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1637,9 +1665,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
@@ -1919,10 +1947,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O2"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1960,20 +1988,20 @@
       <c r="D1" s="1"/>
       <c r="F1"/>
       <c r="G1" s="7"/>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="M1" s="48" t="s">
+      <c r="J1" s="53"/>
+      <c r="M1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="Q1" s="51" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="Q1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -1983,21 +2011,21 @@
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="M2" s="49" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="M2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="Q2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2007,24 +2035,24 @@
         <v>40</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="56">
+      <c r="E3" s="49"/>
+      <c r="F3" s="51">
         <v>44803</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="40">
         <v>0</v>
       </c>
@@ -2050,13 +2078,13 @@
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="43">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
         <v>44803</v>
@@ -2205,7 +2233,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="str">
-        <f t="shared" ref="I8:S17" ca="1" si="2">IF(AND($C8="Objectif",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),2,IF(AND($C8="Jalon",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),1,""))</f>
+        <f t="shared" ref="I8:S19" ca="1" si="2">IF(AND($C8="Objectif",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),2,IF(AND($C8="Jalon",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),1,""))</f>
         <v/>
       </c>
       <c r="J8" s="36" t="str">
@@ -2321,10 +2349,14 @@
         <v>42</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
       <c r="F10" s="31">
         <v>44803</v>
       </c>
@@ -2332,9 +2364,9 @@
         <v>1</v>
       </c>
       <c r="H10" s="26"/>
-      <c r="I10" s="36">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+      <c r="I10" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
       </c>
       <c r="J10" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2385,15 +2417,17 @@
       <c r="C11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="E11" s="30">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="F11" s="31">
         <v>44803</v>
       </c>
       <c r="G11" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="36" t="str">
@@ -2442,84 +2476,80 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31">
-        <v>44804</v>
-      </c>
-      <c r="G12" s="32">
-        <v>1</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J12" s="36">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="L12" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="M12" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="N12" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O12" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P12" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Q12" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R12" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S12" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",J$5&gt;=$F12,J$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",J$5&gt;=$F12,J$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",K$5&gt;=$F12,K$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",K$5&gt;=$F12,K$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="L12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",L$5&gt;=$F12,L$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",L$5&gt;=$F12,L$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="M12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",M$5&gt;=$F12,M$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",M$5&gt;=$F12,M$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="N12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",N$5&gt;=$F12,N$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",N$5&gt;=$F12,N$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",O$5&gt;=$F12,O$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",O$5&gt;=$F12,O$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",P$5&gt;=$F12,P$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",P$5&gt;=$F12,P$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Q12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",Q$5&gt;=$F12,Q$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",Q$5&gt;=$F12,Q$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="R12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",R$5&gt;=$F12,R$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",R$5&gt;=$F12,R$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="S12" s="62" t="str">
+        <f ca="1">IF(AND($C12="Objectif",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="33"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>38</v>
+      </c>
       <c r="E13" s="30">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="F13" s="31">
-        <v>44805</v>
+        <v>44804</v>
       </c>
       <c r="G13" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="36" t="str">
@@ -2568,15 +2598,25 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="31">
+        <v>44804</v>
+      </c>
+      <c r="G14" s="32">
+        <v>1</v>
+      </c>
       <c r="H14" s="26"/>
       <c r="I14" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2624,19 +2664,21 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="47" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" s="30">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F15" s="31">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="G15" s="32">
         <v>1</v>
@@ -2650,9 +2692,9 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K15" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+      <c r="K15" s="36">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="L15" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2683,88 +2725,24 @@
         <v/>
       </c>
       <c r="S15" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="31">
-        <v>44807</v>
-      </c>
-      <c r="G16" s="32">
-        <v>1</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J16" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="K16" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="L16" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="M16" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="N16" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O16" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P16" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Q16" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R16" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S16" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="30">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="F17" s="31">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="G17" s="32">
         <v>1</v>
@@ -2818,138 +2796,150 @@
     <row r="18" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="30"/>
+      <c r="E18" s="30">
+        <v>0.5</v>
+      </c>
       <c r="F18" s="31">
-        <v>44808</v>
+        <v>44807</v>
       </c>
       <c r="G18" s="32">
         <v>1</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="36" t="str">
-        <f t="shared" ref="I18:S29" ca="1" si="3">IF(AND($C18="Objectif",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Jalon",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J18" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K18" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="L18" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="M18" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="N18" s="36">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N18" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
       </c>
       <c r="O18" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="P18" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="Q18" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R18" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="S18" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="30"/>
+      <c r="E19" s="30">
+        <v>0.33</v>
+      </c>
       <c r="F19" s="31">
-        <v>44808</v>
+        <v>44807</v>
       </c>
       <c r="G19" s="32">
         <v>1</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="L19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="M19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="N19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="O19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="P19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="Q19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="S19" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="33"/>
+      <c r="B20" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>18</v>
+      </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31">
+        <v>44808</v>
+      </c>
+      <c r="G20" s="32">
+        <v>1</v>
+      </c>
       <c r="H20" s="26"/>
       <c r="I20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="I20:S31" ca="1" si="3">IF(AND($C20="Objectif",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Jalon",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="J20" s="36" t="str">
@@ -2968,9 +2958,9 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="N20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="N20" s="36">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="O20" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2996,15 +2986,13 @@
     <row r="21" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>22</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="30"/>
       <c r="F21" s="31">
-        <v>44809</v>
+        <v>44808</v>
       </c>
       <c r="G21" s="32">
         <v>1</v>
@@ -3057,20 +3045,14 @@
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>20</v>
-      </c>
+      <c r="B22" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="33"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31">
-        <v>44809</v>
-      </c>
-      <c r="G22" s="32">
-        <v>1</v>
-      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="26"/>
       <c r="I22" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3120,7 +3102,7 @@
     <row r="23" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>22</v>
@@ -3128,7 +3110,7 @@
       <c r="D23" s="33"/>
       <c r="E23" s="30"/>
       <c r="F23" s="31">
-        <v>44810</v>
+        <v>44809</v>
       </c>
       <c r="G23" s="32">
         <v>1</v>
@@ -3182,15 +3164,15 @@
     <row r="24" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="30"/>
       <c r="F24" s="31">
-        <v>44810</v>
+        <v>44809</v>
       </c>
       <c r="G24" s="32">
         <v>1</v>
@@ -3224,9 +3206,9 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="P24" s="36">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+      <c r="P24" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="Q24" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3244,15 +3226,15 @@
     <row r="25" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="30"/>
       <c r="F25" s="31">
-        <v>44811</v>
+        <v>44810</v>
       </c>
       <c r="G25" s="32">
         <v>1</v>
@@ -3305,14 +3287,20 @@
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="33"/>
+      <c r="B26" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31">
+        <v>44810</v>
+      </c>
+      <c r="G26" s="32">
+        <v>1</v>
+      </c>
       <c r="H26" s="26"/>
       <c r="I26" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3342,9 +3330,9 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="P26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="P26" s="36">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="Q26" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3362,13 +3350,15 @@
     <row r="27" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="D27" s="33"/>
       <c r="E27" s="30"/>
       <c r="F27" s="31">
-        <v>44812</v>
+        <v>44811</v>
       </c>
       <c r="G27" s="32">
         <v>1</v>
@@ -3421,18 +3411,14 @@
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="47" t="s">
-        <v>11</v>
+      <c r="B28" s="46" t="s">
+        <v>41</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31">
-        <v>44812</v>
-      </c>
-      <c r="G28" s="32">
-        <v>1</v>
-      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="26"/>
       <c r="I28" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3482,15 +3468,13 @@
     <row r="29" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>18</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="30"/>
       <c r="F29" s="31">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="G29" s="32">
         <v>1</v>
@@ -3536,58 +3520,180 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="S29" s="36">
-        <f t="shared" ca="1" si="3"/>
+      <c r="S29" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31">
+        <v>44812</v>
+      </c>
+      <c r="G30" s="32">
         <v>1</v>
       </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="L30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="M30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="N30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="O30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="P30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="R30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="S30" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
     </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+    <row r="31" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="32">
+        <v>1</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J31" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K31" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="L31" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="M31" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="N31" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="O31" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="P31" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q31" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="R31" s="36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="S31" s="36">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B32" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
     </row>
-    <row r="31" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="5"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="4"/>
+    <row r="33" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="6"/>
+    <row r="34" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E17:E31 E6:E15">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3601,45 +3707,45 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:R30">
-    <cfRule type="expression" dxfId="12" priority="1">
+  <conditionalFormatting sqref="I17:R32 I5:R15">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:S4">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:S4">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:S4">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:S29">
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="I17:S31 I7:S15">
+    <cfRule type="expression" dxfId="5" priority="24" stopIfTrue="1">
       <formula>AND($C7="Risque faible",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="43" stopIfTrue="1">
       <formula>AND($C7="Risque élevé",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="61" stopIfTrue="1">
       <formula>AND($C7="En bonne voie",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="62" stopIfTrue="1">
       <formula>AND($C7="Risque moyen",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="63" stopIfTrue="1">
       <formula>AND(LEN($C7)=0,I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S30">
-    <cfRule type="expression" dxfId="3" priority="103">
+  <conditionalFormatting sqref="S17:S32 S5:S15">
+    <cfRule type="expression" dxfId="0" priority="103">
       <formula>AND(TODAY()&gt;=S$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3647,7 +3753,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C19 C9:C13 C21:C25 C27:C29" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C21 C29:C31 C23:C27 C9:C15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Objectif,Jalon,En bonne voie, Risque faible, Risque moyen, Risque élevé"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3676,7 +3782,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E6:E29</xm:sqref>
+          <xm:sqref>E17:E31 E6:E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="136" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -3695,7 +3801,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I30:S30</xm:sqref>
+          <xm:sqref>I32:S32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="137" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -3714,7 +3820,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I7:S29</xm:sqref>
+          <xm:sqref>I17:S31 I7:S15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3739,35 +3845,35 @@
       <c r="B1" s="8"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="20"/>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="I2" s="52" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="I2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Philippe - Badge Cyber 2022 Agile2.xlsx
+++ b/Philippe - Badge Cyber 2022 Agile2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4848ABE-D164-416E-BCF9-E5E991FC0902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32844F2-E836-4CA7-B01C-9379E6FEF9E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -23,22 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -210,6 +200,12 @@
   </si>
   <si>
     <t>Faire fonctionner Back</t>
+  </si>
+  <si>
+    <t>Test swagg back</t>
+  </si>
+  <si>
+    <t>Tests unitaires</t>
   </si>
 </sst>
 </file>
@@ -450,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +672,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -988,7 +990,7 @@
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1107,6 +1109,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1123,31 +1152,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,7 +1208,402 @@
     <cellStyle name="Vérification" xfId="21" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1548,20 +1948,20 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Style de tableau Gantt" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="43"/>
+      <tableStyleElement type="headerRow" dxfId="42"/>
+      <tableStyleElement type="firstRowStripe" dxfId="41"/>
     </tableStyle>
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="totalRow" dxfId="19"/>
-      <tableStyleElement type="firstColumn" dxfId="18"/>
-      <tableStyleElement type="lastColumn" dxfId="17"/>
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="39"/>
+      <tableStyleElement type="totalRow" dxfId="38"/>
+      <tableStyleElement type="firstColumn" dxfId="37"/>
+      <tableStyleElement type="lastColumn" dxfId="36"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="33"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1655,8 +2055,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:G31" totalsRowShown="0">
-  <autoFilter ref="B6:G31" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:G32" totalsRowShown="0">
+  <autoFilter ref="B6:G32" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1665,9 +2065,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="29"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
@@ -1947,10 +2347,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1988,20 +2388,20 @@
       <c r="D1" s="1"/>
       <c r="F1"/>
       <c r="G1" s="7"/>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="M1" s="54" t="s">
+      <c r="J1" s="62"/>
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="Q1" s="57" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="Q1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -2011,21 +2411,21 @@
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="M2" s="55" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="M2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="Q2" s="58" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="Q2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2035,24 +2435,24 @@
         <v>40</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="51">
+      <c r="E3" s="58"/>
+      <c r="F3" s="60">
         <v>44803</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="40">
         <v>0</v>
       </c>
@@ -2078,13 +2478,13 @@
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="43">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
         <v>44803</v>
@@ -2233,7 +2633,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="str">
-        <f t="shared" ref="I8:S19" ca="1" si="2">IF(AND($C8="Objectif",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),2,IF(AND($C8="Jalon",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),1,""))</f>
+        <f t="shared" ref="I8:S20" ca="1" si="2">IF(AND($C8="Objectif",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),2,IF(AND($C8="Jalon",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),1,""))</f>
         <v/>
       </c>
       <c r="J8" s="36" t="str">
@@ -2477,57 +2877,57 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",J$5&gt;=$F12,J$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",J$5&gt;=$F12,J$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",K$5&gt;=$F12,K$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",K$5&gt;=$F12,K$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",L$5&gt;=$F12,L$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",L$5&gt;=$F12,L$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",M$5&gt;=$F12,M$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",M$5&gt;=$F12,M$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",N$5&gt;=$F12,N$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",N$5&gt;=$F12,N$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",O$5&gt;=$F12,O$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",O$5&gt;=$F12,O$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="P12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",P$5&gt;=$F12,P$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",P$5&gt;=$F12,P$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Q12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",Q$5&gt;=$F12,Q$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",Q$5&gt;=$F12,Q$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="R12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",R$5&gt;=$F12,R$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",R$5&gt;=$F12,R$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="S12" s="62" t="str">
-        <f ca="1">IF(AND($C12="Objectif",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),1,""))</f>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51" t="str">
+        <f t="shared" ref="I12:S12" ca="1" si="3">IF(AND($C12="Objectif",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),2,IF(AND($C12="Jalon",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J12" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K12" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="L12" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="M12" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="N12" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="O12" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="P12" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q12" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="R12" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="S12" s="51" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
@@ -2666,10 +3066,10 @@
     <row r="15" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>38</v>
@@ -2678,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="31">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="G15" s="32">
         <v>1</v>
@@ -2692,118 +3092,120 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L15" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M15" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N15" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O15" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P15" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q15" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R15" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S15" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="31">
+        <v>44806</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J16" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="K16" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L16" s="36">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="L15" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="M15" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="N15" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O15" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P15" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Q15" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R15" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S15" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="F17" s="31">
-        <v>44806</v>
-      </c>
-      <c r="G17" s="32">
-        <v>1</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J17" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="K17" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="L17" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="M17" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="N17" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O17" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P17" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Q17" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R17" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S17" s="36" t="str">
+      <c r="M16" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N16" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O16" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P16" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q16" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R16" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S16" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="47" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="30">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="F18" s="31">
         <v>44807</v>
@@ -2860,14 +3262,14 @@
     <row r="19" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="30">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="31">
         <v>44807</v>
@@ -2924,71 +3326,75 @@
     <row r="20" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="30"/>
+      <c r="E20" s="30">
+        <v>0.33</v>
+      </c>
       <c r="F20" s="31">
-        <v>44808</v>
+        <v>44807</v>
       </c>
       <c r="G20" s="32">
         <v>1</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="36" t="str">
-        <f t="shared" ref="I20:S31" ca="1" si="3">IF(AND($C20="Objectif",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Jalon",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="L20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="M20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="N20" s="36">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N20" s="36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
       </c>
       <c r="O20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="P20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="Q20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="S20" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="33"/>
+        <v>13</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>18</v>
+      </c>
       <c r="D21" s="33"/>
       <c r="E21" s="30"/>
       <c r="F21" s="31">
@@ -2999,175 +3405,173 @@
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="I21:S32" ca="1" si="4">IF(AND($C21="Objectif",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Jalon",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="J21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="N21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N21" s="36">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="O21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S21" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="46" t="s">
-        <v>47</v>
+      <c r="B22" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31">
+        <v>44808</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
       <c r="H22" s="26"/>
       <c r="I22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S22" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="B23" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="33"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31">
-        <v>44809</v>
-      </c>
-      <c r="G23" s="32">
-        <v>1</v>
-      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="26"/>
       <c r="I23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S23" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="30"/>
@@ -3179,119 +3583,119 @@
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S24" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="30"/>
       <c r="F25" s="31">
-        <v>44810</v>
+        <v>44809</v>
       </c>
       <c r="G25" s="32">
         <v>1</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S25" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="30"/>
@@ -3303,232 +3707,234 @@
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="P26" s="36">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="P26" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
       </c>
       <c r="Q26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S26" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="30"/>
       <c r="F27" s="31">
-        <v>44811</v>
+        <v>44810</v>
       </c>
       <c r="G27" s="32">
         <v>1</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="P27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="P27" s="36">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="Q27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S27" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="33"/>
+      <c r="B28" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31">
+        <v>44811</v>
+      </c>
+      <c r="G28" s="32">
+        <v>1</v>
+      </c>
       <c r="H28" s="26"/>
       <c r="I28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S28" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="47" t="s">
-        <v>10</v>
+      <c r="B29" s="46" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31">
-        <v>44812</v>
-      </c>
-      <c r="G29" s="32">
-        <v>1</v>
-      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="26"/>
       <c r="I29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S29" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -3541,160 +3947,220 @@
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S30" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>18</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="G31" s="32">
         <v>1</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J31" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K31" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L31" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M31" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N31" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O31" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P31" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q31" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R31" s="36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="S31" s="36">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="S31" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="32">
         <v>1</v>
       </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J32" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="K32" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L32" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M32" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N32" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="O32" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="P32" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q32" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="R32" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="S32" s="36">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+    <row r="33" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B33" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
     </row>
-    <row r="33" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="5"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="4"/>
+    <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="5"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="4"/>
     </row>
-    <row r="34" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="6"/>
+    <row r="35" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E17:E31 E6:E15">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="E18:E32 E6:E14 E16">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3707,53 +4173,116 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:R32 I5:R15">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="I18:R33 I5:R14 I16:R16">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:S4">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:S4">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:S4">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:S31 I7:S15">
-    <cfRule type="expression" dxfId="5" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="I18:S32 I7:S14 I16:S16">
+    <cfRule type="expression" dxfId="24" priority="47" stopIfTrue="1">
       <formula>AND($C7="Risque faible",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="66" stopIfTrue="1">
       <formula>AND($C7="Risque élevé",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="84" stopIfTrue="1">
       <formula>AND($C7="En bonne voie",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="85" stopIfTrue="1">
       <formula>AND($C7="Risque moyen",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="86" stopIfTrue="1">
       <formula>AND(LEN($C7)=0,I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S32 S5:S15">
-    <cfRule type="expression" dxfId="0" priority="103">
+  <conditionalFormatting sqref="S18:S33 S5:S14 S16">
+    <cfRule type="expression" dxfId="19" priority="126">
       <formula>AND(TODAY()&gt;=S$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{81C68F88-F650-4F73-80BF-6436921D6DAF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:J15 L15:R15">
+    <cfRule type="expression" dxfId="18" priority="15">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:J15 L15:S15">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+      <formula>AND($C15="Risque faible",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+      <formula>AND($C15="Risque élevé",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
+      <formula>AND($C15="En bonne voie",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="20" stopIfTrue="1">
+      <formula>AND($C15="Risque moyen",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
+      <formula>AND(LEN($C15)=0,I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15">
+    <cfRule type="expression" dxfId="12" priority="22">
+      <formula>AND(TODAY()&gt;=S$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>AND($C15="Risque faible",K$5&gt;=$F15,K$5&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>AND($C15="Risque élevé",K$5&gt;=$F15,K$5&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND($C15="En bonne voie",K$5&gt;=$F15,K$5&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>AND($C15="Risque moyen",K$5&gt;=$F15,K$5&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>AND(LEN($C15)=0,K$5&gt;=$F15,K$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C21 C29:C31 C23:C27 C9:C15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C22 C30:C32 C24:C28 C9:C16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Objectif,Jalon,En bonne voie, Risque faible, Risque moyen, Risque élevé"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3782,10 +4311,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E17:E31 E6:E15</xm:sqref>
+          <xm:sqref>E18:E32 E6:E14 E16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="136" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="159" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3801,10 +4330,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I32:S32</xm:sqref>
+          <xm:sqref>I33:S33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="137" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="160" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3820,7 +4349,60 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I17:S31 I7:S15</xm:sqref>
+          <xm:sqref>I18:S32 I7:S14 I16:S16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{81C68F88-F650-4F73-80BF-6436921D6DAF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="23" id="{A7C07CE4-B0C5-4ED8-A24B-B2B635AED014}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I15:J15 L15:S15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{15A3AC76-4D57-47FD-9DC1-40FDB62CA13C}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3845,35 +4427,35 @@
       <c r="B1" s="8"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="20"/>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="I2" s="58" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="I2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Philippe - Badge Cyber 2022 Agile2.xlsx
+++ b/Philippe - Badge Cyber 2022 Agile2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32844F2-E836-4CA7-B01C-9379E6FEF9E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E71F97-8863-41EC-8654-CEC54935DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -23,12 +23,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -76,21 +86,6 @@
     <t>Description du jalon</t>
   </si>
   <si>
-    <t>Tâche 1</t>
-  </si>
-  <si>
-    <t>Tâche 2</t>
-  </si>
-  <si>
-    <t>Tâche 3</t>
-  </si>
-  <si>
-    <t>Tâche 4</t>
-  </si>
-  <si>
-    <t>Tâche 5</t>
-  </si>
-  <si>
     <t>Pour ajouter des données, insérez des lignes AU-DESSUS de celle-ci.</t>
   </si>
   <si>
@@ -98,9 +93,6 @@
   </si>
   <si>
     <t>Objectif</t>
-  </si>
-  <si>
-    <t>Jalon</t>
   </si>
   <si>
     <t>Risque faible</t>
@@ -184,12 +176,6 @@
     <t>Validaion BDD</t>
   </si>
   <si>
-    <t>Report BDD EF</t>
-  </si>
-  <si>
-    <t>Inplémentation Identity</t>
-  </si>
-  <si>
     <t>Développement BACK</t>
   </si>
   <si>
@@ -199,13 +185,46 @@
     <t>Prof</t>
   </si>
   <si>
-    <t>Faire fonctionner Back</t>
-  </si>
-  <si>
-    <t>Test swagg back</t>
-  </si>
-  <si>
     <t>Tests unitaires</t>
+  </si>
+  <si>
+    <t>Installation / PC de TF</t>
+  </si>
+  <si>
+    <t>Défense du Badge</t>
+  </si>
+  <si>
+    <t>Report BDD =&gt; EF</t>
+  </si>
+  <si>
+    <t>(Angular)</t>
+  </si>
+  <si>
+    <t>(C#)</t>
+  </si>
+  <si>
+    <t>Sprint / les controller</t>
+  </si>
+  <si>
+    <t>Implémentation Identity</t>
+  </si>
+  <si>
+    <t>Implémentation JWT</t>
+  </si>
+  <si>
+    <t>Interface Identity</t>
+  </si>
+  <si>
+    <t>Interface Formations/cours</t>
+  </si>
+  <si>
+    <t>Projet unit test</t>
+  </si>
+  <si>
+    <t>Cybersécurité / Crypto</t>
+  </si>
+  <si>
+    <t>Sprint / les interface</t>
   </si>
 </sst>
 </file>
@@ -1121,19 +1140,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
@@ -1152,7 +1159,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,133 +1227,7 @@
     <cellStyle name="Vérification" xfId="21" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill>
@@ -1948,20 +1841,20 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Style de tableau Gantt" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="43"/>
-      <tableStyleElement type="headerRow" dxfId="42"/>
-      <tableStyleElement type="firstRowStripe" dxfId="41"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
     </tableStyle>
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
-      <tableStyleElement type="headerRow" dxfId="39"/>
-      <tableStyleElement type="totalRow" dxfId="38"/>
-      <tableStyleElement type="firstColumn" dxfId="37"/>
-      <tableStyleElement type="lastColumn" dxfId="36"/>
-      <tableStyleElement type="firstRowStripe" dxfId="35"/>
-      <tableStyleElement type="secondRowStripe" dxfId="34"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="33"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="totalRow" dxfId="32"/>
+      <tableStyleElement type="firstColumn" dxfId="31"/>
+      <tableStyleElement type="lastColumn" dxfId="30"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="27"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2055,8 +1948,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:G32" totalsRowShown="0">
-  <autoFilter ref="B6:G32" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:G28" totalsRowShown="0">
+  <autoFilter ref="B6:G28" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2065,9 +1958,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Catégorie" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à" dataDxfId="23"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
@@ -2347,10 +2240,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="S29" sqref="B1:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2382,26 +2275,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
       <c r="F1"/>
       <c r="G1" s="7"/>
-      <c r="I1" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="62"/>
-      <c r="M1" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="Q1" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
+      <c r="I1" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="58"/>
+      <c r="M1" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="Q1" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -2411,48 +2304,48 @@
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="M2" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="Q2" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
+      <c r="I2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="M2" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="60">
+      <c r="D3" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="56">
         <v>44803</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="58"/>
+      <c r="D4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="54"/>
       <c r="F4" s="40">
         <v>0</v>
       </c>
@@ -2478,13 +2371,13 @@
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="43">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
         <v>44803</v>
@@ -2538,19 +2431,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="25" t="str">
@@ -2624,16 +2517,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="str">
-        <f t="shared" ref="I8:S20" ca="1" si="2">IF(AND($C8="Objectif",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),2,IF(AND($C8="Jalon",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),1,""))</f>
+        <f t="shared" ref="I8:S18" ca="1" si="2">IF(AND($C8="Objectif",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),2,IF(AND($C8="Jalon",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1),1,""))</f>
         <v/>
       </c>
       <c r="J8" s="36" t="str">
@@ -2680,13 +2575,13 @@
     <row r="9" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9" s="30">
         <v>1</v>
@@ -2746,13 +2641,13 @@
     <row r="10" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="47" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E10" s="30">
         <v>1</v>
@@ -2812,13 +2707,13 @@
     <row r="11" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="47" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E11" s="30">
         <v>1</v>
@@ -2878,7 +2773,7 @@
     <row r="12" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="48" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
@@ -2937,10 +2832,10 @@
         <v>44</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E13" s="30">
         <v>1</v>
@@ -3000,13 +2895,13 @@
     <row r="14" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E14" s="30">
         <v>1</v>
@@ -3066,13 +2961,13 @@
     <row r="15" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E15" s="30">
         <v>1</v>
@@ -3092,7 +2987,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K15" s="63" t="str">
+      <c r="K15" s="52" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
@@ -3132,13 +3027,13 @@
     <row r="16" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E16" s="30">
         <v>1</v>
@@ -3198,14 +3093,14 @@
     <row r="18" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="47" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="30">
-        <v>0.06</v>
+        <v>0.8</v>
       </c>
       <c r="F18" s="31">
         <v>44807</v>
@@ -3261,142 +3156,95 @@
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="31">
-        <v>44807</v>
-      </c>
-      <c r="G19" s="32">
-        <v>1</v>
-      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="K19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="L19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="M19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="N19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Q19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S19" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="47" t="s">
-        <v>12</v>
+      <c r="B20" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="30">
-        <v>0.33</v>
-      </c>
-      <c r="F20" s="31">
-        <v>44807</v>
-      </c>
-      <c r="G20" s="32">
-        <v>1</v>
-      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="26"/>
       <c r="I20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="I20:S28" ca="1" si="4">IF(AND($C20="Objectif",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Jalon",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="J20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="O20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S20" s="36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="47" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="33"/>
-      <c r="E21" s="30"/>
+      <c r="E21" s="30">
+        <v>0.8</v>
+      </c>
       <c r="F21" s="31">
         <v>44808</v>
       </c>
@@ -3405,7 +3253,7 @@
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="36" t="str">
-        <f t="shared" ref="I21:S32" ca="1" si="4">IF(AND($C21="Objectif",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Jalon",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J21" s="36" t="str">
@@ -3424,9 +3272,9 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="N21" s="36">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+      <c r="N21" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
       </c>
       <c r="O21" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3452,13 +3300,17 @@
     <row r="22" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="33"/>
+        <v>51</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="D22" s="33"/>
-      <c r="E22" s="30"/>
+      <c r="E22" s="30">
+        <v>0.8</v>
+      </c>
       <c r="F22" s="31">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="G22" s="32">
         <v>1</v>
@@ -3511,14 +3363,22 @@
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="33"/>
+      <c r="B23" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="E23" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="31">
+        <v>44810</v>
+      </c>
+      <c r="G23" s="32">
+        <v>1</v>
+      </c>
       <c r="H23" s="26"/>
       <c r="I23" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3568,15 +3428,17 @@
     <row r="24" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="47" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D24" s="33"/>
-      <c r="E24" s="30"/>
+      <c r="E24" s="30">
+        <v>0.8</v>
+      </c>
       <c r="F24" s="31">
-        <v>44809</v>
+        <v>44811</v>
       </c>
       <c r="G24" s="32">
         <v>1</v>
@@ -3614,9 +3476,9 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Q24" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="Q24" s="36">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="R24" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3630,15 +3492,17 @@
     <row r="25" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="47" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="30"/>
+      <c r="E25" s="30">
+        <v>0.8</v>
+      </c>
       <c r="F25" s="31">
-        <v>44809</v>
+        <v>44812</v>
       </c>
       <c r="G25" s="32">
         <v>1</v>
@@ -3691,20 +3555,14 @@
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="B26" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31">
-        <v>44810</v>
-      </c>
-      <c r="G26" s="32">
-        <v>1</v>
-      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="26"/>
       <c r="I26" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3754,15 +3612,15 @@
     <row r="27" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>17</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C27" s="33"/>
       <c r="D27" s="33"/>
-      <c r="E27" s="30"/>
+      <c r="E27" s="30">
+        <v>1</v>
+      </c>
       <c r="F27" s="31">
-        <v>44810</v>
+        <v>44813</v>
       </c>
       <c r="G27" s="32">
         <v>1</v>
@@ -3796,9 +3654,9 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="P27" s="36">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+      <c r="P27" s="36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
       </c>
       <c r="Q27" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3816,15 +3674,17 @@
     <row r="28" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="47" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="30"/>
+      <c r="E28" s="30">
+        <v>1</v>
+      </c>
       <c r="F28" s="31">
-        <v>44811</v>
+        <v>44813</v>
       </c>
       <c r="G28" s="32">
         <v>1</v>
@@ -3870,296 +3730,58 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="S28" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="S28" s="36">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="L29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="M29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="P29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="R29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="S29" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+    <row r="29" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
     </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31">
-        <v>44812</v>
-      </c>
-      <c r="G30" s="32">
-        <v>1</v>
-      </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="L30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="M30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="P30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="R30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="S30" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+    <row r="30" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31">
-        <v>44812</v>
-      </c>
-      <c r="G31" s="32">
-        <v>1</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="L31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="M31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="P31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="R31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="S31" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="32">
-        <v>1</v>
-      </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J32" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K32" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="L32" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="M32" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N32" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O32" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="P32" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q32" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="R32" s="36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="S32" s="36">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-    </row>
-    <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="5"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="6"/>
+    <row r="31" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E18:E32 E6:E14 E16">
+  <conditionalFormatting sqref="E6:E14 E16 E18:E28">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4173,45 +3795,45 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:R33 I5:R14 I16:R16">
-    <cfRule type="expression" dxfId="28" priority="24">
+  <conditionalFormatting sqref="I5:R14 I16:R16 I18:R29">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:S4">
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:S4">
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:S4">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:S32 I7:S14 I16:S16">
-    <cfRule type="expression" dxfId="24" priority="47" stopIfTrue="1">
+  <conditionalFormatting sqref="I7:S14 I16:S16 I18:S28">
+    <cfRule type="expression" dxfId="18" priority="47" stopIfTrue="1">
       <formula>AND($C7="Risque faible",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="66" stopIfTrue="1">
       <formula>AND($C7="Risque élevé",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="84" stopIfTrue="1">
       <formula>AND($C7="En bonne voie",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="85" stopIfTrue="1">
       <formula>AND($C7="Risque moyen",I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="86" stopIfTrue="1">
       <formula>AND(LEN($C7)=0,I$5&gt;=$F7,I$5&lt;=$F7+$G7-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S18:S33 S5:S14 S16">
-    <cfRule type="expression" dxfId="19" priority="126">
+  <conditionalFormatting sqref="S5:S14 S16 S18:S29">
+    <cfRule type="expression" dxfId="13" priority="126">
       <formula>AND(TODAY()&gt;=S$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4230,29 +3852,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15 L15:R15">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J15 L15:S15">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="17" stopIfTrue="1">
       <formula>AND($C15="Risque faible",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="18" stopIfTrue="1">
       <formula>AND($C15="Risque élevé",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
       <formula>AND($C15="En bonne voie",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="20" stopIfTrue="1">
       <formula>AND($C15="Risque moyen",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
       <formula>AND(LEN($C15)=0,I$5&gt;=$F15,I$5&lt;=$F15+$G15-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>AND(TODAY()&gt;=S$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4282,7 +3904,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C22 C30:C32 C24:C28 C9:C16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C28 C21:C25 C9:C16 C18:C19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Objectif,Jalon,En bonne voie, Risque faible, Risque moyen, Risque élevé"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4311,7 +3933,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E18:E32 E6:E14 E16</xm:sqref>
+          <xm:sqref>E6:E14 E16 E18:E28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{81C68F88-F650-4F73-80BF-6436921D6DAF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="159" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -4330,41 +3967,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I33:S33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="160" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I18:S32 I7:S14 I16:S16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{81C68F88-F650-4F73-80BF-6436921D6DAF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E15</xm:sqref>
+          <xm:sqref>I29:S29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="23" id="{A7C07CE4-B0C5-4ED8-A24B-B2B635AED014}">
@@ -4404,6 +4007,25 @@
           </x14:cfRule>
           <xm:sqref>K15</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="221" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I18:S28 I7:S14 I16:S16</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4422,40 +4044,40 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="E1" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="20"/>
-      <c r="I1" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="I1" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="I2" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
+      <c r="E2" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="I2" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4483,27 +4105,27 @@
   <sheetData>
     <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
